--- a/biology/Biologie cellulaire et moléculaire/Ectoplasme_(biologie)/Ectoplasme_(biologie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Ectoplasme_(biologie)/Ectoplasme_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie cellulaire, l'ectoplasme est la zone externe du cytoplasme d'une cellule.
 À l'inverse de l'endoplasme, l'ectoplasme forme la partie non fluide du cytoplasme. Du point de vue de sa composition, l'ectoplasme contiendra principalement les filaments d'actine, lui donnant ainsi un rôle dans les phénomènes de cyclose cellulaire.
